--- a/outputs/OEV/oev_sans_comptage.xlsx
+++ b/outputs/OEV/oev_sans_comptage.xlsx
@@ -651,7 +651,7 @@
         <v>42893</v>
       </c>
       <c r="K3" s="2">
-        <v>45779</v>
+        <v>45855</v>
       </c>
       <c r="L3" t="s">
         <v>53</v>
@@ -1224,7 +1224,7 @@
         <v>45705</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:12">
